--- a/handling-blank-zeros-unique-excel-demo.xlsx
+++ b/handling-blank-zeros-unique-excel-demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27330"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0F7461-07E7-4E34-9590-7E23971EF866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC8C071-E32C-44BF-BBA4-743B5985B70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{7984B9DF-AA9D-447C-99AE-3F2F38B54315}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{7984B9DF-AA9D-447C-99AE-3F2F38B54315}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>John</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>score</t>
-  </si>
-  <si>
-    <t>Option A: Filter out blanks first</t>
-  </si>
-  <si>
-    <t>Option B: Redisplay 0s as blanks</t>
   </si>
 </sst>
 </file>
@@ -488,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A710B-9524-4CEE-B4F6-A6A32B2CC064}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
@@ -509,11 +503,26 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
+      <c r="E1" t="str" cm="1">
+        <f t="array" ref="E1:G9">_xlfn.UNIQUE(_xlfn._xlws.FILTER(names[], (names[location] &lt;&gt; "") *
+(names[score] &lt;&gt; "")))</f>
+        <v>John</v>
+      </c>
+      <c r="F1" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="I1" t="str" cm="1">
+        <f t="array" ref="I1:K11">_xlfn.UNIQUE(names[])</f>
+        <v>John</v>
+      </c>
+      <c r="J1" t="str">
+        <v>New York</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="1.05">
@@ -526,6 +535,24 @@
       <c r="C2">
         <v>7</v>
       </c>
+      <c r="E2" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
@@ -537,26 +564,23 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="E3" t="str" cm="1">
-        <f t="array" ref="E3:G11">_xlfn.UNIQUE(_xlfn._xlws.FILTER(names[], (names[location] &lt;&gt; "") *
-(names[score] &lt;&gt; "")))</f>
+      <c r="E3" t="str">
         <v>John</v>
       </c>
       <c r="F3" t="str">
-        <v>New York</v>
+        <v>Miami</v>
       </c>
       <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="I3" t="str" cm="1">
-        <f t="array" ref="I3:K13">_xlfn.UNIQUE(names[])</f>
-        <v>John</v>
+        <v>5</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Bob</v>
       </c>
       <c r="J3" t="str">
-        <v>New York</v>
+        <v>Chicago</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="1.05">
@@ -570,19 +594,19 @@
         <v>Alice</v>
       </c>
       <c r="F4" t="str">
-        <v>Los Angeles</v>
+        <v>New York</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4" t="str">
-        <v>Alice</v>
+        <v>John</v>
       </c>
       <c r="J4" t="str">
-        <v>Los Angeles</v>
+        <v>Miami</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="1.05">
@@ -596,22 +620,22 @@
         <v>5</v>
       </c>
       <c r="E5" t="str">
-        <v>John</v>
+        <v>Dennis</v>
       </c>
       <c r="F5" t="str">
-        <v>Miami</v>
+        <v>Chicago</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="str">
-        <v>Bob</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Chicago</v>
+        <v>Clara</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="1.05">
@@ -622,22 +646,22 @@
         <v>7</v>
       </c>
       <c r="E6" t="str">
-        <v>Alice</v>
+        <v>Bob</v>
       </c>
       <c r="F6" t="str">
         <v>New York</v>
       </c>
       <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="J6" t="str">
+        <v>New York</v>
+      </c>
+      <c r="K6">
         <v>10</v>
-      </c>
-      <c r="I6" t="str">
-        <v>John</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Miami</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="1.05">
@@ -651,22 +675,22 @@
         <v>10</v>
       </c>
       <c r="E7" t="str">
+        <v>Eva</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Miami</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="I7" t="str">
         <v>Dennis</v>
       </c>
-      <c r="F7" t="str">
+      <c r="J7" t="str">
         <v>Chicago</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>3</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Clara</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="1.05">
@@ -680,22 +704,22 @@
         <v>3</v>
       </c>
       <c r="E8" t="str">
+        <v>Clara</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="str">
         <v>Bob</v>
-      </c>
-      <c r="F8" t="str">
-        <v>New York</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Alice</v>
       </c>
       <c r="J8" t="str">
         <v>New York</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="1.05">
@@ -709,22 +733,22 @@
         <v>7</v>
       </c>
       <c r="E9" t="str">
+        <v>Bob</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="str">
         <v>Eva</v>
       </c>
-      <c r="F9" t="str">
+      <c r="J9" t="str">
         <v>Miami</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <v>8</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Dennis</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Chicago</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="1.05">
@@ -737,20 +761,11 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="E10" t="str">
+      <c r="I10" t="str">
         <v>Clara</v>
       </c>
-      <c r="F10" t="str">
+      <c r="J10" t="str">
         <v>Chicago</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Bob</v>
-      </c>
-      <c r="J10" t="str">
-        <v>New York</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -766,23 +781,14 @@
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="E11" t="str">
+      <c r="I11" t="str">
         <v>Bob</v>
       </c>
-      <c r="F11" t="str">
+      <c r="J11" t="str">
         <v>Chicago</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>9</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Eva</v>
-      </c>
-      <c r="J11" t="str">
-        <v>Miami</v>
-      </c>
-      <c r="K11">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="1.05">
@@ -795,15 +801,6 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="I12" t="str">
-        <v>Clara</v>
-      </c>
-      <c r="J12" t="str">
-        <v>Chicago</v>
-      </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="1.05">
       <c r="A13" t="s">
@@ -814,15 +811,6 @@
       </c>
       <c r="C13">
         <v>4</v>
-      </c>
-      <c r="I13" t="str">
-        <v>Bob</v>
-      </c>
-      <c r="J13" t="str">
-        <v>Chicago</v>
-      </c>
-      <c r="K13">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="1.05">

--- a/handling-blank-zeros-unique-excel-demo.xlsx
+++ b/handling-blank-zeros-unique-excel-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0F7461-07E7-4E34-9590-7E23971EF866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6201D31-D95E-4FCD-9E20-6963D713B31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{7984B9DF-AA9D-447C-99AE-3F2F38B54315}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>John</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>score</t>
-  </si>
-  <si>
-    <t>Option A: Filter out blanks first</t>
-  </si>
-  <si>
-    <t>Option B: Redisplay 0s as blanks</t>
   </si>
 </sst>
 </file>
@@ -486,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A710B-9524-4CEE-B4F6-A6A32B2CC064}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
@@ -499,7 +493,7 @@
     <col min="6" max="6" width="9.96875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -509,14 +503,29 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="1.05">
+      <c r="E1" t="str" cm="1">
+        <f t="array" ref="E1:G9">_xlfn.UNIQUE(_xlfn._xlws.FILTER(names[], (names[location] &lt;&gt; "") *
+(names[score] &lt;&gt; "")))</f>
+        <v>John</v>
+      </c>
+      <c r="F1" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="M1" t="str" cm="1">
+        <f t="array" ref="M1:O11">_xlfn.UNIQUE(names[])</f>
+        <v>John</v>
+      </c>
+      <c r="N1" t="str">
+        <v>New York</v>
+      </c>
+      <c r="O1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -526,8 +535,26 @@
       <c r="C2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="1.05">
+      <c r="E2" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -537,29 +564,26 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="E3" t="str" cm="1">
-        <f t="array" ref="E3:G11">_xlfn.UNIQUE(_xlfn._xlws.FILTER(names[], (names[location] &lt;&gt; "") *
-(names[score] &lt;&gt; "")))</f>
+      <c r="E3" t="str">
         <v>John</v>
       </c>
       <c r="F3" t="str">
-        <v>New York</v>
+        <v>Miami</v>
       </c>
       <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="I3" t="str" cm="1">
-        <f t="array" ref="I3:K13">_xlfn.UNIQUE(names[])</f>
-        <v>John</v>
-      </c>
-      <c r="J3" t="str">
-        <v>New York</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="1.05">
+        <v>5</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Bob</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -570,22 +594,22 @@
         <v>Alice</v>
       </c>
       <c r="F4" t="str">
-        <v>Los Angeles</v>
+        <v>New York</v>
       </c>
       <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Alice</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Los Angeles</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="1.05">
+        <v>10</v>
+      </c>
+      <c r="M4" t="str">
+        <v>John</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Miami</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -596,51 +620,51 @@
         <v>5</v>
       </c>
       <c r="E5" t="str">
-        <v>John</v>
+        <v>Dennis</v>
       </c>
       <c r="F5" t="str">
-        <v>Miami</v>
+        <v>Chicago</v>
       </c>
       <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="str">
+        <v>3</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Clara</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="1.05">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="str">
         <v>Bob</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Chicago</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="1.05">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Alice</v>
       </c>
       <c r="F6" t="str">
         <v>New York</v>
       </c>
       <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="N6" t="str">
+        <v>New York</v>
+      </c>
+      <c r="O6">
         <v>10</v>
       </c>
-      <c r="I6" t="str">
-        <v>John</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Miami</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="1.05">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -651,25 +675,25 @@
         <v>10</v>
       </c>
       <c r="E7" t="str">
+        <v>Eva</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Miami</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="M7" t="str">
         <v>Dennis</v>
       </c>
-      <c r="F7" t="str">
+      <c r="N7" t="str">
         <v>Chicago</v>
       </c>
-      <c r="G7">
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="I7" t="str">
-        <v>Clara</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="1.05">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -680,25 +704,25 @@
         <v>3</v>
       </c>
       <c r="E8" t="str">
+        <v>Clara</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="M8" t="str">
         <v>Bob</v>
       </c>
-      <c r="F8" t="str">
+      <c r="N8" t="str">
         <v>New York</v>
       </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Alice</v>
-      </c>
-      <c r="J8" t="str">
-        <v>New York</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="1.05">
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -709,25 +733,25 @@
         <v>7</v>
       </c>
       <c r="E9" t="str">
+        <v>Bob</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="M9" t="str">
         <v>Eva</v>
       </c>
-      <c r="F9" t="str">
+      <c r="N9" t="str">
         <v>Miami</v>
       </c>
-      <c r="G9">
+      <c r="O9">
         <v>8</v>
       </c>
-      <c r="I9" t="str">
-        <v>Dennis</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Chicago</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="1.05">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -737,26 +761,17 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="E10" t="str">
+      <c r="M10" t="str">
         <v>Clara</v>
       </c>
-      <c r="F10" t="str">
+      <c r="N10" t="str">
         <v>Chicago</v>
       </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Bob</v>
-      </c>
-      <c r="J10" t="str">
-        <v>New York</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="1.05">
+      <c r="O10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -766,26 +781,17 @@
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="E11" t="str">
+      <c r="M11" t="str">
         <v>Bob</v>
       </c>
-      <c r="F11" t="str">
+      <c r="N11" t="str">
         <v>Chicago</v>
       </c>
-      <c r="G11">
+      <c r="O11">
         <v>9</v>
       </c>
-      <c r="I11" t="str">
-        <v>Eva</v>
-      </c>
-      <c r="J11" t="str">
-        <v>Miami</v>
-      </c>
-      <c r="K11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="1.05">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -795,17 +801,8 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="I12" t="str">
-        <v>Clara</v>
-      </c>
-      <c r="J12" t="str">
-        <v>Chicago</v>
-      </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="1.05">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -815,17 +812,8 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="I13" t="str">
-        <v>Bob</v>
-      </c>
-      <c r="J13" t="str">
-        <v>Chicago</v>
-      </c>
-      <c r="K13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="1.05">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="1.05">
       <c r="A14" t="s">
         <v>4</v>
       </c>
